--- a/.github/SDPP_sMRI_VarNameMapping.xlsx
+++ b/.github/SDPP_sMRI_VarNameMapping.xlsx
@@ -6,8 +6,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Desikan" sheetId="2" state="visible" r:id="rId1"/>
-    <sheet name="Destrieux" sheetId="3" state="visible" r:id="rId2"/>
+    <sheet name="Desikan" sheetId="4" state="visible" r:id="rId1"/>
+    <sheet name="Destrieux" sheetId="5" state="visible" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
